--- a/Examples/multi_enzyme_model_regeneration.xlsx
+++ b/Examples/multi_enzyme_model_regeneration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C2BD6-527A-4965-AA8E-8D3AD2AAA1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA23618C-5CEC-4AC8-8858-0C1DA9739E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
@@ -368,9 +368,6 @@
     <t>R29</t>
   </si>
   <si>
-    <t>MMA; SPI</t>
-  </si>
-  <si>
     <t>MM; LC</t>
   </si>
   <si>
@@ -435,6 +432,9 @@
   </si>
   <si>
     <t>Pi+</t>
+  </si>
+  <si>
+    <t>MMA</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA16065E-CBBA-49C5-AD56-8DE07546DCC3}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542CDD3C-AD6A-49FE-94BE-7648650D73FD}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,10 +1496,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5"/>
@@ -1521,10 +1521,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1546,10 +1546,10 @@
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1571,10 +1571,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1587,7 +1587,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -1599,7 +1599,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6"/>
@@ -1729,17 +1729,17 @@
         <v>95</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,17 +1747,17 @@
         <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,17 +1765,17 @@
         <v>97</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1783,17 +1783,17 @@
         <v>98</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,17 +1801,17 @@
         <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1819,17 +1819,17 @@
         <v>100</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1837,17 +1837,17 @@
         <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1855,17 +1855,17 @@
         <v>102</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,17 +1873,17 @@
         <v>103</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1891,17 +1891,17 @@
         <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1909,17 +1909,17 @@
         <v>105</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1927,17 +1927,17 @@
         <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">

--- a/Examples/multi_enzyme_model_regeneration.xlsx
+++ b/Examples/multi_enzyme_model_regeneration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA23618C-5CEC-4AC8-8858-0C1DA9739E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A2E82D-A8C6-4A3C-B034-3E3D6BEA2BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
   </bookViews>
@@ -434,7 +434,7 @@
     <t>Pi+</t>
   </si>
   <si>
-    <t>MMA</t>
+    <t>MMA; SPI</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C28"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
